--- a/Excel_Invoice_Generator/invoice.xlsx
+++ b/Excel_Invoice_Generator/invoice.xlsx
@@ -35,7 +35,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>27/03/2021</t>
+    <t>06/04/2021</t>
   </si>
   <si>
     <t>Invoice Number</t>
